--- a/Code/Results/Cases/Case_4_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.235611990165239</v>
+        <v>3.577770766035371</v>
       </c>
       <c r="C2">
-        <v>0.5134392023630596</v>
+        <v>0.1606579634555771</v>
       </c>
       <c r="D2">
-        <v>0.2379488264631391</v>
+        <v>0.457992860989819</v>
       </c>
       <c r="E2">
-        <v>0.04698941459180439</v>
+        <v>0.1270481752441448</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.226591417404819</v>
+        <v>3.041145529798825</v>
       </c>
       <c r="H2">
-        <v>1.311773824403645</v>
+        <v>2.336121255631781</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02260688234219543</v>
+        <v>0.0377382600139029</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4502060291156624</v>
+        <v>0.6061498198585724</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.118722127297289</v>
+        <v>2.306366486997455</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.718949745468706</v>
+        <v>3.466044477585513</v>
       </c>
       <c r="C3">
-        <v>0.4432169439778875</v>
+        <v>0.1416828904190197</v>
       </c>
       <c r="D3">
-        <v>0.2239003350269684</v>
+        <v>0.4572801181569872</v>
       </c>
       <c r="E3">
-        <v>0.04676222474924963</v>
+        <v>0.1275868731172256</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.064271520213367</v>
+        <v>3.02204000373294</v>
       </c>
       <c r="H3">
-        <v>1.246792243595678</v>
+        <v>2.335279542658583</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02176562999867926</v>
+        <v>0.03743876828796999</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4062824931335172</v>
+        <v>0.5989507204493805</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.179763101859109</v>
+        <v>2.330115751466614</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.407609185055549</v>
+        <v>3.399427577641234</v>
       </c>
       <c r="C4">
-        <v>0.4006100094340752</v>
+        <v>0.1300697271083493</v>
       </c>
       <c r="D4">
-        <v>0.215657226699534</v>
+        <v>0.4570359368944139</v>
       </c>
       <c r="E4">
-        <v>0.04667757164638964</v>
+        <v>0.1279539747464611</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.969712256886226</v>
+        <v>3.012067878838764</v>
       </c>
       <c r="H4">
-        <v>1.209612962458607</v>
+        <v>2.335891596710297</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02125192218336736</v>
+        <v>0.03725133294553906</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3800185840033947</v>
+        <v>0.5948308347769711</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.21903699062009</v>
+        <v>2.345460884204755</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.282045218281041</v>
+        <v>3.372778554349907</v>
       </c>
       <c r="C5">
-        <v>0.3833537298236536</v>
+        <v>0.1253464934536623</v>
       </c>
       <c r="D5">
-        <v>0.2123872975691512</v>
+        <v>0.4569850711601475</v>
       </c>
       <c r="E5">
-        <v>0.04665631830160066</v>
+        <v>0.1281127207828234</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.932350084113381</v>
+        <v>3.008444895512213</v>
       </c>
       <c r="H5">
-        <v>1.19509365848981</v>
+        <v>2.33642436366145</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02104302660461244</v>
+        <v>0.03717405445250321</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3694762652632448</v>
+        <v>0.5932274275706817</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.235474824149897</v>
+        <v>2.35190571017948</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.261269775980963</v>
+        <v>3.368383552304408</v>
       </c>
       <c r="C6">
-        <v>0.3804941614116615</v>
+        <v>0.1245627545663694</v>
       </c>
       <c r="D6">
-        <v>0.211849521214063</v>
+        <v>0.4569795626320712</v>
       </c>
       <c r="E6">
-        <v>0.04665357390955016</v>
+        <v>0.1281396333662492</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.926213768587587</v>
+        <v>3.007869877584426</v>
       </c>
       <c r="H6">
-        <v>1.192719435663548</v>
+        <v>2.336529928045536</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02100835919288002</v>
+        <v>0.03716116808144321</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3677349431803805</v>
+        <v>0.5929657402754458</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.238229997981442</v>
+        <v>2.352987429683786</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.405910698680145</v>
+        <v>3.399066164733711</v>
       </c>
       <c r="C7">
-        <v>0.4003768818989499</v>
+        <v>0.1300059908770663</v>
       </c>
       <c r="D7">
-        <v>0.2156127749868091</v>
+        <v>0.4570350539618317</v>
       </c>
       <c r="E7">
-        <v>0.04667723208483388</v>
+        <v>0.1279560785910707</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.969203776016059</v>
+        <v>3.012017235497922</v>
       </c>
       <c r="H7">
-        <v>1.209414658903285</v>
+        <v>2.335897635220164</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02124910347825626</v>
+        <v>0.03725029437993932</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3798757783428499</v>
+        <v>0.5948089051228322</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.219256944595614</v>
+        <v>2.345547026180746</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.056135788163658</v>
+        <v>3.538835294473245</v>
       </c>
       <c r="C8">
-        <v>0.4891070087855383</v>
+        <v>0.1541074060316703</v>
       </c>
       <c r="D8">
-        <v>0.233021050171331</v>
+        <v>0.4577069537628944</v>
       </c>
       <c r="E8">
-        <v>0.04689935335788853</v>
+        <v>0.1272263828728342</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.169493102858837</v>
+        <v>3.034191987683442</v>
       </c>
       <c r="H8">
-        <v>1.288770787816901</v>
+        <v>2.335596418376582</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02231606426039789</v>
+        <v>0.0376357279922459</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4349041543398187</v>
+        <v>0.6036051856904407</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.139385395233042</v>
+        <v>2.314396696199054</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.386601851428736</v>
+        <v>3.828719543756165</v>
       </c>
       <c r="C9">
-        <v>0.6682504733108203</v>
+        <v>0.2016816178533247</v>
       </c>
       <c r="D9">
-        <v>0.2705471335228964</v>
+        <v>0.4605602738313195</v>
       </c>
       <c r="E9">
-        <v>0.04779735705689525</v>
+        <v>0.1260833141514528</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.608396070169931</v>
+        <v>3.09170643565011</v>
       </c>
       <c r="H9">
-        <v>1.468586026879308</v>
+        <v>2.343989099847249</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02444427591852616</v>
+        <v>0.03836369224300817</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5492600177162643</v>
+        <v>0.6232424887743235</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9978834674709134</v>
+        <v>2.25937756355065</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.411385621465911</v>
+        <v>4.05143968208688</v>
       </c>
       <c r="C10">
-        <v>0.8047345575899385</v>
+        <v>0.2368458965893581</v>
       </c>
       <c r="D10">
-        <v>0.3007329814114286</v>
+        <v>0.4635949376724255</v>
       </c>
       <c r="E10">
-        <v>0.04878151255129737</v>
+        <v>0.1254184029025023</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.967787129070302</v>
+        <v>3.142628850442037</v>
       </c>
       <c r="H10">
-        <v>1.619548320835747</v>
+        <v>2.355672672609074</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02605123236658358</v>
+        <v>0.03888194628603792</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6385378315279979</v>
+        <v>0.6391343929521156</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9045280695700555</v>
+        <v>2.222669475966228</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.891350043406078</v>
+        <v>4.154902842127342</v>
       </c>
       <c r="C11">
-        <v>0.8683316141168405</v>
+        <v>0.2528939206939356</v>
       </c>
       <c r="D11">
-        <v>0.315174725713689</v>
+        <v>0.4651797882350195</v>
       </c>
       <c r="E11">
-        <v>0.0493105788984014</v>
+        <v>0.1251537790816304</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.141579583152264</v>
+        <v>3.167702112317727</v>
       </c>
       <c r="H11">
-        <v>1.693379784739619</v>
+        <v>2.36219524047803</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02679735442997533</v>
+        <v>0.03911420373928109</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6806388308485225</v>
+        <v>0.6466841258237821</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8647219272480555</v>
+        <v>2.206780131050785</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.075418600363264</v>
+        <v>4.194391980829835</v>
       </c>
       <c r="C12">
-        <v>0.8926747946039484</v>
+        <v>0.2589786447439621</v>
       </c>
       <c r="D12">
-        <v>0.3207591393596374</v>
+        <v>0.4658093503428518</v>
       </c>
       <c r="E12">
-        <v>0.0495236713935121</v>
+        <v>0.1250590059852748</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.209092182783792</v>
+        <v>3.177473068821314</v>
       </c>
       <c r="H12">
-        <v>1.722182256530175</v>
+        <v>2.364839537096856</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02708261915246801</v>
+        <v>0.03920165696018785</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6968284834953806</v>
+        <v>0.6495892207802711</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.85006654519362</v>
+        <v>2.200879988359162</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.035667310855615</v>
+        <v>4.18587348637783</v>
       </c>
       <c r="C13">
-        <v>0.8874197217595849</v>
+        <v>0.2576678444812615</v>
       </c>
       <c r="D13">
-        <v>0.3195510580849543</v>
+        <v>0.4656724542639381</v>
       </c>
       <c r="E13">
-        <v>0.04947719308959186</v>
+        <v>0.1250791755082119</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.194472658040411</v>
+        <v>3.175356402466036</v>
       </c>
       <c r="H13">
-        <v>1.715939806021652</v>
+        <v>2.364262275569558</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02702105143436739</v>
+        <v>0.03918284438841013</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6933301979665458</v>
+        <v>0.6489615013403096</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8532036179760851</v>
+        <v>2.202145487761292</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.90644497403315</v>
+        <v>4.158145419720256</v>
       </c>
       <c r="C14">
-        <v>0.8703288549548631</v>
+        <v>0.253394359043881</v>
       </c>
       <c r="D14">
-        <v>0.3156317572963871</v>
+        <v>0.4652309930404357</v>
       </c>
       <c r="E14">
-        <v>0.04932784821113145</v>
+        <v>0.1251458731787682</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.147098427018705</v>
+        <v>3.168500427610866</v>
       </c>
       <c r="H14">
-        <v>1.695731827950056</v>
+        <v>2.362409290321096</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02682076527011112</v>
+        <v>0.03912140850984969</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6819656101698115</v>
+        <v>0.6469222037378586</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8635076144189213</v>
+        <v>2.206292379307492</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.827604916077121</v>
+        <v>4.141201570947544</v>
       </c>
       <c r="C15">
-        <v>0.859895498027555</v>
+        <v>0.2507777346215221</v>
       </c>
       <c r="D15">
-        <v>0.313246564071008</v>
+        <v>0.4649644166192957</v>
       </c>
       <c r="E15">
-        <v>0.04923806348420179</v>
+        <v>0.125187434881278</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.118308909170054</v>
+        <v>3.164336976617449</v>
       </c>
       <c r="H15">
-        <v>1.68346706119263</v>
+        <v>2.36129700831151</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02669845680871319</v>
+        <v>0.03908371261788979</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6750376811038024</v>
+        <v>0.6456790914194954</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.869874730543323</v>
+        <v>2.208847694621355</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.380323775615864</v>
+        <v>4.044721418776192</v>
       </c>
       <c r="C16">
-        <v>0.800612284260211</v>
+        <v>0.2357981815048049</v>
       </c>
       <c r="D16">
-        <v>0.2998045847482445</v>
+        <v>0.4634954785044698</v>
       </c>
       <c r="E16">
-        <v>0.04874866056234062</v>
+        <v>0.1254364575720626</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.956654821307779</v>
+        <v>3.141028811537893</v>
       </c>
       <c r="H16">
-        <v>1.614835495251185</v>
+        <v>2.355270766529486</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02600282090650374</v>
+        <v>0.03886669777735641</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6358190928938967</v>
+        <v>0.6386474562089575</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9071859875227162</v>
+        <v>2.22372420423045</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.109686166109213</v>
+        <v>3.98608461713053</v>
       </c>
       <c r="C17">
-        <v>0.7646595966429857</v>
+        <v>0.2266221166877074</v>
       </c>
       <c r="D17">
-        <v>0.2917493171326129</v>
+        <v>0.4626466934770974</v>
       </c>
       <c r="E17">
-        <v>0.0484699714606851</v>
+        <v>0.125598912666657</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.860271469561212</v>
+        <v>3.127220087700579</v>
       </c>
       <c r="H17">
-        <v>1.574121973403948</v>
+        <v>2.351883652093619</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02558030838350156</v>
+        <v>0.03873267394555846</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6121629852399622</v>
+        <v>0.6344159126700362</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9307807934826258</v>
+        <v>2.233058053455487</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.955297662705391</v>
+        <v>3.952560257996026</v>
       </c>
       <c r="C18">
-        <v>0.7441197540421172</v>
+        <v>0.2213491292847038</v>
       </c>
       <c r="D18">
-        <v>0.2871820668910345</v>
+        <v>0.4621777290601443</v>
       </c>
       <c r="E18">
-        <v>0.04831726576947126</v>
+        <v>0.1256959154166086</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.805789395405952</v>
+        <v>3.119457191432673</v>
       </c>
       <c r="H18">
-        <v>1.551183243403216</v>
+        <v>2.350049101663927</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02533867507921883</v>
+        <v>0.03865525731554342</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.598694471469031</v>
+        <v>0.6320121945678778</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9446000368329166</v>
+        <v>2.238502790471067</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.903233890667934</v>
+        <v>3.941244140234687</v>
       </c>
       <c r="C19">
-        <v>0.7371879992652168</v>
+        <v>0.2195646101154693</v>
       </c>
       <c r="D19">
-        <v>0.2856466130513127</v>
+        <v>0.4620222485186929</v>
       </c>
       <c r="E19">
-        <v>0.04826683591042169</v>
+        <v>0.1257293710637182</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.787500516891697</v>
+        <v>3.116859584931291</v>
       </c>
       <c r="H19">
-        <v>1.54349588443614</v>
+        <v>2.349447449584432</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02525708450583686</v>
+        <v>0.03862898858741204</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5941570067123791</v>
+        <v>0.6312035129633813</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9493206056195618</v>
+        <v>2.240359351566916</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.138361753847221</v>
+        <v>3.992305692255172</v>
       </c>
       <c r="C20">
-        <v>0.7684721211447254</v>
+        <v>0.2275984213955837</v>
       </c>
       <c r="D20">
-        <v>0.2925998984815266</v>
+        <v>0.4627350572381488</v>
       </c>
       <c r="E20">
-        <v>0.04849884581392416</v>
+        <v>0.1255812503609448</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.870431297373017</v>
+        <v>3.128671457490384</v>
       </c>
       <c r="H20">
-        <v>1.578405764563115</v>
+        <v>2.352232451225547</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02562513850940107</v>
+        <v>0.03874697509073854</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6146667261725867</v>
+        <v>0.6348632462040911</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9282431626145708</v>
+        <v>2.232056564600221</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.944334951083135</v>
+        <v>4.16628140502354</v>
       </c>
       <c r="C21">
-        <v>0.875341416008979</v>
+        <v>0.2546493745973635</v>
       </c>
       <c r="D21">
-        <v>0.3167796957638274</v>
+        <v>0.4653598624074817</v>
       </c>
       <c r="E21">
-        <v>0.0493713594736942</v>
+        <v>0.1251261350379291</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.160965319133766</v>
+        <v>3.170506681361132</v>
       </c>
       <c r="H21">
-        <v>1.701643606631109</v>
+        <v>2.362948819902755</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02687951541816602</v>
+        <v>0.03913946717865535</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6852966791652477</v>
+        <v>0.6475199408934742</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8604694189248576</v>
+        <v>2.205071163194134</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.48477620768</v>
+        <v>4.281791432651289</v>
       </c>
       <c r="C22">
-        <v>0.9467288751063165</v>
+        <v>0.2723736601467976</v>
       </c>
       <c r="D22">
-        <v>0.3332642529502863</v>
+        <v>0.4672467829490188</v>
       </c>
       <c r="E22">
-        <v>0.05001648189386287</v>
+        <v>0.1248603619130453</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.360886318704303</v>
+        <v>3.199459522777914</v>
       </c>
       <c r="H22">
-        <v>1.787164806306379</v>
+        <v>2.370969111042939</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02771552279258671</v>
+        <v>0.03939308543782793</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7329153066296215</v>
+        <v>0.6560610149212351</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8186340283608402</v>
+        <v>2.188115689314849</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.194957193686491</v>
+        <v>4.219975821360151</v>
       </c>
       <c r="C23">
-        <v>0.9084710069922153</v>
+        <v>0.2629096764016765</v>
       </c>
       <c r="D23">
-        <v>0.3243988071231314</v>
+        <v>0.4662240003002154</v>
       </c>
       <c r="E23">
-        <v>0.04966493383710002</v>
+        <v>0.1249993147827393</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.253185413487472</v>
+        <v>3.183858817710387</v>
       </c>
       <c r="H23">
-        <v>1.741027419190289</v>
+        <v>2.366595289038145</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0272676428270735</v>
+        <v>0.03925798793495083</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7073548700842878</v>
+        <v>0.6514778180436736</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.840724296283085</v>
+        <v>2.197102686632867</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.125393793041837</v>
+        <v>3.98949256269259</v>
       </c>
       <c r="C24">
-        <v>0.7667480775945421</v>
+        <v>0.2271570264114757</v>
       </c>
       <c r="D24">
-        <v>0.2922151528356665</v>
+        <v>0.4626950487613897</v>
       </c>
       <c r="E24">
-        <v>0.04848576838419305</v>
+        <v>0.1255892242594996</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.865835158685741</v>
+        <v>3.128014745385769</v>
       </c>
       <c r="H24">
-        <v>1.576467612375069</v>
+        <v>2.352074408008662</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0256048668794584</v>
+        <v>0.0387405106787746</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6135343771190378</v>
+        <v>0.634660916228043</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9293896361501908</v>
+        <v>2.232509092976031</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.019443513116187</v>
+        <v>3.748595584739348</v>
       </c>
       <c r="C25">
-        <v>0.6190703195337335</v>
+        <v>0.1887759749877773</v>
       </c>
       <c r="D25">
-        <v>0.2599795476131561</v>
+        <v>0.4596237550901492</v>
       </c>
       <c r="E25">
-        <v>0.04750081629905623</v>
+        <v>0.1263617885311756</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.483874590730665</v>
+        <v>3.074633621478853</v>
       </c>
       <c r="H25">
-        <v>1.416956067940163</v>
+        <v>2.340752743196816</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02386264274700167</v>
+        <v>0.03816970019543398</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5175054676437441</v>
+        <v>0.6176735645064895</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.034411323306024</v>
+        <v>2.273610593556917</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_82/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.577770766035371</v>
+        <v>4.235611990165125</v>
       </c>
       <c r="C2">
-        <v>0.1606579634555771</v>
+        <v>0.513439202363088</v>
       </c>
       <c r="D2">
-        <v>0.457992860989819</v>
+        <v>0.2379488264632528</v>
       </c>
       <c r="E2">
-        <v>0.1270481752441448</v>
+        <v>0.04698941459183281</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.041145529798825</v>
+        <v>2.226591417404819</v>
       </c>
       <c r="H2">
-        <v>2.336121255631781</v>
+        <v>1.311773824403758</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0377382600139029</v>
+        <v>0.02260688234220076</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6061498198585724</v>
+        <v>0.4502060291156624</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.306366486997455</v>
+        <v>1.118722127297353</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.466044477585513</v>
+        <v>3.718949745468592</v>
       </c>
       <c r="C3">
-        <v>0.1416828904190197</v>
+        <v>0.4432169439775748</v>
       </c>
       <c r="D3">
-        <v>0.4572801181569872</v>
+        <v>0.223900335026741</v>
       </c>
       <c r="E3">
-        <v>0.1275868731172256</v>
+        <v>0.0467622247492212</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.02204000373294</v>
+        <v>2.064271520213396</v>
       </c>
       <c r="H3">
-        <v>2.335279542658583</v>
+        <v>1.246792243595706</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03743876828796999</v>
+        <v>0.02176562999865972</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5989507204493805</v>
+        <v>0.4062824931334319</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.330115751466614</v>
+        <v>1.179763101859017</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.399427577641234</v>
+        <v>3.407609185055662</v>
       </c>
       <c r="C4">
-        <v>0.1300697271083493</v>
+        <v>0.4006100094336773</v>
       </c>
       <c r="D4">
-        <v>0.4570359368944139</v>
+        <v>0.2156572266993209</v>
       </c>
       <c r="E4">
-        <v>0.1279539747464611</v>
+        <v>0.04667757164640918</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.012067878838764</v>
+        <v>1.969712256886197</v>
       </c>
       <c r="H4">
-        <v>2.335891596710297</v>
+        <v>1.209612962458607</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03725133294553906</v>
+        <v>0.02125192218342065</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5948308347769711</v>
+        <v>0.3800185840034374</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.345460884204755</v>
+        <v>1.219036990620104</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.372778554349907</v>
+        <v>3.282045218281098</v>
       </c>
       <c r="C5">
-        <v>0.1253464934536623</v>
+        <v>0.3833537298233125</v>
       </c>
       <c r="D5">
-        <v>0.4569850711601475</v>
+        <v>0.2123872975692507</v>
       </c>
       <c r="E5">
-        <v>0.1281127207828234</v>
+        <v>0.04665631830159356</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.008444895512213</v>
+        <v>1.932350084113295</v>
       </c>
       <c r="H5">
-        <v>2.33642436366145</v>
+        <v>1.19509365848981</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03717405445250321</v>
+        <v>0.02104302660463553</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5932274275706817</v>
+        <v>0.3694762652632022</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.35190571017948</v>
+        <v>1.235474824149868</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.368383552304408</v>
+        <v>3.26126977598085</v>
       </c>
       <c r="C6">
-        <v>0.1245627545663694</v>
+        <v>0.3804941614115478</v>
       </c>
       <c r="D6">
-        <v>0.4569795626320712</v>
+        <v>0.2118495212140772</v>
       </c>
       <c r="E6">
-        <v>0.1281396333662492</v>
+        <v>0.04665357390956615</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.007869877584426</v>
+        <v>1.92621376858753</v>
       </c>
       <c r="H6">
-        <v>2.336529928045536</v>
+        <v>1.192719435663406</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03716116808144321</v>
+        <v>0.02100835919288357</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5929657402754458</v>
+        <v>0.3677349431803805</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.352987429683786</v>
+        <v>1.238229997981385</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.399066164733711</v>
+        <v>3.405910698680202</v>
       </c>
       <c r="C7">
-        <v>0.1300059908770663</v>
+        <v>0.4003768818991489</v>
       </c>
       <c r="D7">
-        <v>0.4570350539618317</v>
+        <v>0.2156127749867949</v>
       </c>
       <c r="E7">
-        <v>0.1279560785910707</v>
+        <v>0.04667723208481078</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.012017235497922</v>
+        <v>1.96920377601603</v>
       </c>
       <c r="H7">
-        <v>2.335897635220164</v>
+        <v>1.209414658903427</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03725029437993932</v>
+        <v>0.02124910347825804</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5948089051228322</v>
+        <v>0.3798757783428925</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.345547026180746</v>
+        <v>1.219256944595628</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.538835294473245</v>
+        <v>4.056135788163715</v>
       </c>
       <c r="C8">
-        <v>0.1541074060316703</v>
+        <v>0.4891070087858793</v>
       </c>
       <c r="D8">
-        <v>0.4577069537628944</v>
+        <v>0.2330210501714305</v>
       </c>
       <c r="E8">
-        <v>0.1272263828728342</v>
+        <v>0.04689935335788498</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.034191987683442</v>
+        <v>2.169493102858752</v>
       </c>
       <c r="H8">
-        <v>2.335596418376582</v>
+        <v>1.288770787816901</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0376357279922459</v>
+        <v>0.02231606426043697</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6036051856904407</v>
+        <v>0.4349041543397476</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.314396696199054</v>
+        <v>1.139385395233077</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.828719543756165</v>
+        <v>5.386601851428793</v>
       </c>
       <c r="C9">
-        <v>0.2016816178533247</v>
+        <v>0.668250473310593</v>
       </c>
       <c r="D9">
-        <v>0.4605602738313195</v>
+        <v>0.2705471335231238</v>
       </c>
       <c r="E9">
-        <v>0.1260833141514528</v>
+        <v>0.04779735705693255</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.09170643565011</v>
+        <v>2.608396070169903</v>
       </c>
       <c r="H9">
-        <v>2.343989099847249</v>
+        <v>1.468586026879308</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03836369224300817</v>
+        <v>0.02444427591861142</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6232424887743235</v>
+        <v>0.5492600177162785</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.25937756355065</v>
+        <v>0.9978834674709276</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.05143968208688</v>
+        <v>6.411385621465968</v>
       </c>
       <c r="C10">
-        <v>0.2368458965893581</v>
+        <v>0.8047345575899385</v>
       </c>
       <c r="D10">
-        <v>0.4635949376724255</v>
+        <v>0.3007329814114286</v>
       </c>
       <c r="E10">
-        <v>0.1254184029025023</v>
+        <v>0.04878151255132401</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.142628850442037</v>
+        <v>2.967787129070331</v>
       </c>
       <c r="H10">
-        <v>2.355672672609074</v>
+        <v>1.619548320835747</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03888194628603792</v>
+        <v>0.02605123236657469</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6391343929521156</v>
+        <v>0.6385378315279979</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.222669475966228</v>
+        <v>0.9045280695701123</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.154902842127342</v>
+        <v>6.891350043405907</v>
       </c>
       <c r="C11">
-        <v>0.2528939206939356</v>
+        <v>0.8683316141170394</v>
       </c>
       <c r="D11">
-        <v>0.4651797882350195</v>
+        <v>0.3151747257135753</v>
       </c>
       <c r="E11">
-        <v>0.1251537790816304</v>
+        <v>0.0493105788984014</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.167702112317727</v>
+        <v>3.141579583152378</v>
       </c>
       <c r="H11">
-        <v>2.36219524047803</v>
+        <v>1.693379784739676</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03911420373928109</v>
+        <v>0.02679735443011033</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6466841258237821</v>
+        <v>0.6806388308485367</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.206780131050785</v>
+        <v>0.8647219272481195</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.194391980829835</v>
+        <v>7.075418600363264</v>
       </c>
       <c r="C12">
-        <v>0.2589786447439621</v>
+        <v>0.8926747946041758</v>
       </c>
       <c r="D12">
-        <v>0.4658093503428518</v>
+        <v>0.3207591393594242</v>
       </c>
       <c r="E12">
-        <v>0.1250590059852748</v>
+        <v>0.04952367139351388</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.177473068821314</v>
+        <v>3.209092182783792</v>
       </c>
       <c r="H12">
-        <v>2.364839537096856</v>
+        <v>1.722182256530175</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03920165696018785</v>
+        <v>0.02708261915241827</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6495892207802711</v>
+        <v>0.6968284834954375</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.200879988359162</v>
+        <v>0.8500665451935774</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.18587348637783</v>
+        <v>7.035667310855558</v>
       </c>
       <c r="C13">
-        <v>0.2576678444812615</v>
+        <v>0.8874197217596134</v>
       </c>
       <c r="D13">
-        <v>0.4656724542639381</v>
+        <v>0.3195510580853522</v>
       </c>
       <c r="E13">
-        <v>0.1250791755082119</v>
+        <v>0.04947719308963805</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.175356402466036</v>
+        <v>3.194472658040468</v>
       </c>
       <c r="H13">
-        <v>2.364262275569558</v>
+        <v>1.715939806021623</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03918284438841013</v>
+        <v>0.02702105143454503</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6489615013403096</v>
+        <v>0.6933301979666453</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.202145487761292</v>
+        <v>0.8532036179761775</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.158145419720256</v>
+        <v>6.90644497403315</v>
       </c>
       <c r="C14">
-        <v>0.253394359043881</v>
+        <v>0.8703288549555452</v>
       </c>
       <c r="D14">
-        <v>0.4652309930404357</v>
+        <v>0.3156317572963587</v>
       </c>
       <c r="E14">
-        <v>0.1251458731787682</v>
+        <v>0.04932784821122382</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.168500427610866</v>
+        <v>3.147098427018847</v>
       </c>
       <c r="H14">
-        <v>2.362409290321096</v>
+        <v>1.69573182794997</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03912140850984969</v>
+        <v>0.02682076527015731</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6469222037378586</v>
+        <v>0.6819656101697404</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.206292379307492</v>
+        <v>0.8635076144189071</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.141201570947544</v>
+        <v>6.827604916077121</v>
       </c>
       <c r="C15">
-        <v>0.2507777346215221</v>
+        <v>0.8598954980278108</v>
       </c>
       <c r="D15">
-        <v>0.4649644166192957</v>
+        <v>0.3132465640708091</v>
       </c>
       <c r="E15">
-        <v>0.125187434881278</v>
+        <v>0.04923806348420179</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.164336976617449</v>
+        <v>3.11830890916994</v>
       </c>
       <c r="H15">
-        <v>2.36129700831151</v>
+        <v>1.68346706119263</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03908371261788979</v>
+        <v>0.02669845680864924</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6456790914194954</v>
+        <v>0.6750376811038308</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.208847694621355</v>
+        <v>0.8698747305433443</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.044721418776192</v>
+        <v>6.380323775615921</v>
       </c>
       <c r="C16">
-        <v>0.2357981815048049</v>
+        <v>0.800612284260211</v>
       </c>
       <c r="D16">
-        <v>0.4634954785044698</v>
+        <v>0.2998045847484576</v>
       </c>
       <c r="E16">
-        <v>0.1254364575720626</v>
+        <v>0.04874866056230864</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.141028811537893</v>
+        <v>2.956654821307779</v>
       </c>
       <c r="H16">
-        <v>2.355270766529486</v>
+        <v>1.614835495251072</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03886669777735641</v>
+        <v>0.02600282090654815</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6386474562089575</v>
+        <v>0.6358190928938541</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.22372420423045</v>
+        <v>0.9071859875227162</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.98608461713053</v>
+        <v>6.109686166109327</v>
       </c>
       <c r="C17">
-        <v>0.2266221166877074</v>
+        <v>0.7646595966425025</v>
       </c>
       <c r="D17">
-        <v>0.4626466934770974</v>
+        <v>0.2917493171325134</v>
       </c>
       <c r="E17">
-        <v>0.125598912666657</v>
+        <v>0.04846997146065846</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.127220087700579</v>
+        <v>2.860271469561127</v>
       </c>
       <c r="H17">
-        <v>2.351883652093619</v>
+        <v>1.574121973403976</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03873267394555846</v>
+        <v>0.02558030838352465</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6344159126700362</v>
+        <v>0.6121629852399337</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.233058053455487</v>
+        <v>0.9307807934825831</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.952560257996026</v>
+        <v>5.955297662705561</v>
       </c>
       <c r="C18">
-        <v>0.2213491292847038</v>
+        <v>0.7441197540420887</v>
       </c>
       <c r="D18">
-        <v>0.4621777290601443</v>
+        <v>0.2871820668911198</v>
       </c>
       <c r="E18">
-        <v>0.1256959154166086</v>
+        <v>0.04831726576955475</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.119457191432673</v>
+        <v>2.805789395405924</v>
       </c>
       <c r="H18">
-        <v>2.350049101663927</v>
+        <v>1.551183243403216</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03865525731554342</v>
+        <v>0.02533867507923304</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6320121945678778</v>
+        <v>0.5986944714689741</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.238502790471067</v>
+        <v>0.944600036832945</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.941244140234687</v>
+        <v>5.903233890668105</v>
       </c>
       <c r="C19">
-        <v>0.2195646101154693</v>
+        <v>0.7371879992650179</v>
       </c>
       <c r="D19">
-        <v>0.4620222485186929</v>
+        <v>0.2856466130512132</v>
       </c>
       <c r="E19">
-        <v>0.1257293710637182</v>
+        <v>0.0482668359104288</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.116859584931291</v>
+        <v>2.787500516891754</v>
       </c>
       <c r="H19">
-        <v>2.349447449584432</v>
+        <v>1.543495884436027</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03862898858741204</v>
+        <v>0.0252570845056308</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6312035129633813</v>
+        <v>0.594157006712436</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.240359351566916</v>
+        <v>0.949320605619576</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.992305692255172</v>
+        <v>6.138361753847107</v>
       </c>
       <c r="C20">
-        <v>0.2275984213955837</v>
+        <v>0.7684721211447254</v>
       </c>
       <c r="D20">
-        <v>0.4627350572381488</v>
+        <v>0.2925998984817966</v>
       </c>
       <c r="E20">
-        <v>0.1255812503609448</v>
+        <v>0.04849884581392949</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.128671457490384</v>
+        <v>2.870431297373102</v>
       </c>
       <c r="H20">
-        <v>2.352232451225547</v>
+        <v>1.578405764563115</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03874697509073854</v>
+        <v>0.02562513850955028</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6348632462040911</v>
+        <v>0.614666726172544</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.232056564600221</v>
+        <v>0.9282431626145922</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.16628140502354</v>
+        <v>6.944334951083306</v>
       </c>
       <c r="C21">
-        <v>0.2546493745973635</v>
+        <v>0.8753414160096895</v>
       </c>
       <c r="D21">
-        <v>0.4653598624074817</v>
+        <v>0.3167796957639695</v>
       </c>
       <c r="E21">
-        <v>0.1251261350379291</v>
+        <v>0.04937135947370663</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.170506681361132</v>
+        <v>3.160965319133794</v>
       </c>
       <c r="H21">
-        <v>2.362948819902755</v>
+        <v>1.701643606631023</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03913946717865535</v>
+        <v>0.02687951541801681</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6475199408934742</v>
+        <v>0.6852966791651767</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.205071163194134</v>
+        <v>0.8604694189248931</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.281791432651289</v>
+        <v>7.48477620768</v>
       </c>
       <c r="C22">
-        <v>0.2723736601467976</v>
+        <v>0.9467288751058334</v>
       </c>
       <c r="D22">
-        <v>0.4672467829490188</v>
+        <v>0.3332642529504284</v>
       </c>
       <c r="E22">
-        <v>0.1248603619130453</v>
+        <v>0.05001648189385222</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.199459522777914</v>
+        <v>3.360886318704274</v>
       </c>
       <c r="H22">
-        <v>2.370969111042939</v>
+        <v>1.787164806306322</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03939308543782793</v>
+        <v>0.02771552279256007</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6560610149212351</v>
+        <v>0.7329153066296072</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.188115689314849</v>
+        <v>0.818634028360826</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.219975821360151</v>
+        <v>7.194957193686434</v>
       </c>
       <c r="C23">
-        <v>0.2629096764016765</v>
+        <v>0.9084710069922437</v>
       </c>
       <c r="D23">
-        <v>0.4662240003002154</v>
+        <v>0.3243988071232877</v>
       </c>
       <c r="E23">
-        <v>0.1249993147827393</v>
+        <v>0.04966493383704851</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.183858817710387</v>
+        <v>3.253185413487472</v>
       </c>
       <c r="H23">
-        <v>2.366595289038145</v>
+        <v>1.741027419190402</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03925798793495083</v>
+        <v>0.02726764282718541</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6514778180436736</v>
+        <v>0.7073548700844157</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.197102686632867</v>
+        <v>0.8407242962831134</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.98949256269259</v>
+        <v>6.125393793041894</v>
       </c>
       <c r="C24">
-        <v>0.2271570264114757</v>
+        <v>0.7667480775943147</v>
       </c>
       <c r="D24">
-        <v>0.4626950487613897</v>
+        <v>0.2922151528354391</v>
       </c>
       <c r="E24">
-        <v>0.1255892242594996</v>
+        <v>0.0484857683841895</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.128014745385769</v>
+        <v>2.865835158685741</v>
       </c>
       <c r="H24">
-        <v>2.352074408008662</v>
+        <v>1.576467612375211</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0387405106787746</v>
+        <v>0.02560486687933228</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.634660916228043</v>
+        <v>0.6135343771188531</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.232509092976031</v>
+        <v>0.9293896361501908</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.748595584739348</v>
+        <v>5.019443513116016</v>
       </c>
       <c r="C25">
-        <v>0.1887759749877773</v>
+        <v>0.619070319533904</v>
       </c>
       <c r="D25">
-        <v>0.4596237550901492</v>
+        <v>0.2599795476130282</v>
       </c>
       <c r="E25">
-        <v>0.1263617885311756</v>
+        <v>0.04750081629907221</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.074633621478853</v>
+        <v>2.483874590730636</v>
       </c>
       <c r="H25">
-        <v>2.340752743196816</v>
+        <v>1.416956067940049</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03816970019543398</v>
+        <v>0.02386264274701588</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6176735645064895</v>
+        <v>0.5175054676437725</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.273610593556917</v>
+        <v>1.034411323306031</v>
       </c>
       <c r="O25">
         <v>0</v>
